--- a/Input/purchase_plan.xlsx
+++ b/Input/purchase_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tcscomprod-my.sharepoint.com/personal/2595466_tcs_com/Documents/Arquivos de Chat do Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio Final/Desafio-Final-Robot/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{AED3C1BC-688D-4956-8D80-FB6C34EE2BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B451D6-F967-4498-B222-CD07835B2419}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{AED3C1BC-688D-4956-8D80-FB6C34EE2BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36993B01-E37C-48C6-9127-83310E462434}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1ED2AF7A-95D3-4205-96D3-B73FD32B4131}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1ED2AF7A-95D3-4205-96D3-B73FD32B4131}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,6 +394,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,98 +697,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38281CB8-D694-459C-8E4A-7974F0BB072F}">
-  <dimension ref="A3:M77"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="12" width="12.5546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>876</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E2" s="4">
         <v>45820</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G2" s="4">
         <v>45925</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H2" s="3">
         <v>1651691</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>530</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>90</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1">
-        <v>530</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -794,17 +838,17 @@
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -814,37 +858,55 @@
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1">
         <v>5</v>
       </c>
       <c r="K6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+      <c r="E7" s="4">
+        <v>45795</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45776</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K7" s="1">
-        <v>300</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -854,55 +916,37 @@
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
-        <v>2500</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1456</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4">
-        <v>45795</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45776</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1">
-        <v>9</v>
-      </c>
       <c r="K9" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -912,17 +956,17 @@
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K10" s="1">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -932,17 +976,17 @@
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -952,17 +996,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K12" s="1">
-        <v>300</v>
+        <v>5900</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -972,17 +1016,17 @@
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="K13" s="1">
-        <v>9000</v>
+        <v>465</v>
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -992,17 +1036,17 @@
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>5900</v>
+        <v>13400</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1011,38 +1055,53 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J15" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>465</v>
+        <v>1560</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>4768</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45828</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46021</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1115149</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1">
-        <v>13400</v>
-      </c>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1051,53 +1110,38 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
+      <c r="I17" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K17" s="1">
-        <v>1560</v>
+        <v>65000</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>4768</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4">
-        <v>45828</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4">
-        <v>46021</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1115149</v>
-      </c>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1">
-        <v>150000</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>300000</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1107,37 +1151,53 @@
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1652</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45830</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>15698</v>
+      </c>
       <c r="I20" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K20" s="1">
-        <v>300000</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1147,53 +1207,37 @@
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>1652</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45830</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>47</v>
-      </c>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="3">
-        <v>15698</v>
-      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>550000</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1203,37 +1247,55 @@
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>123</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4">
+        <v>45836</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="4">
+        <v>46021</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1564165</v>
+      </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1243,55 +1305,37 @@
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="I25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>123</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="4">
-        <v>45836</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="4">
-        <v>46021</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1564165</v>
-      </c>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>550000</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1301,37 +1345,53 @@
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>748</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45868</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="K28" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1341,53 +1401,55 @@
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
       <c r="I29" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J29" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="K29" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>748</v>
+        <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E30" s="4">
-        <v>45868</v>
+        <v>45807</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45959</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J30" s="1">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="K30" s="1">
         <v>1500</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1395,57 +1457,39 @@
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J31" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="K31" s="1">
-        <v>30</v>
+        <v>1569</v>
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="4">
-        <v>45807</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45959</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J32" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K32" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1455,17 +1499,17 @@
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
       <c r="I33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J33" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K33" s="1">
-        <v>1569</v>
+        <v>849</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1475,37 +1519,53 @@
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
       <c r="I34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J34" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K34" s="1">
-        <v>216</v>
+        <v>615</v>
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>49815</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
+      <c r="E35" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="4">
+        <v>46021</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1564165</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J35" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K35" s="1">
-        <v>849</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1513,55 +1573,39 @@
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="J36" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>615</v>
+        <v>65000</v>
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>49815</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>73</v>
-      </c>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="4">
-        <v>45853</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="4">
-        <v>46021</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1564165</v>
-      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>550000</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1571,37 +1615,55 @@
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="3"/>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>189165</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45820</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="4">
+        <v>45925</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1651691</v>
+      </c>
       <c r="I39" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1611,55 +1673,37 @@
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
       <c r="I40" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J40" s="1">
         <v>3</v>
       </c>
       <c r="K40" s="1">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>189165</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="4">
-        <v>45820</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="4">
-        <v>45925</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1651691</v>
-      </c>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J41" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K41" s="1">
-        <v>530</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1669,17 +1713,17 @@
       <c r="G42" s="4"/>
       <c r="H42" s="3"/>
       <c r="I42" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J42" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K42" s="1">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1689,37 +1733,55 @@
       <c r="G43" s="4"/>
       <c r="H43" s="3"/>
       <c r="I43" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J43" s="1">
         <v>5</v>
       </c>
       <c r="K43" s="1">
+        <v>2500</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>1565416</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
+      <c r="E44" s="4">
+        <v>45795</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45959</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I44" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J44" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K44" s="1">
-        <v>300</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1729,55 +1791,37 @@
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
       <c r="I45" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J45" s="1">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="1">
         <v>5</v>
       </c>
-      <c r="K45" s="1">
-        <v>2500</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>1565416</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="4">
-        <v>45795</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="4">
-        <v>45959</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="1">
-        <v>9</v>
-      </c>
       <c r="K46" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1787,17 +1831,17 @@
       <c r="G47" s="4"/>
       <c r="H47" s="3"/>
       <c r="I47" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J47" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K47" s="1">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1807,17 +1851,17 @@
       <c r="G48" s="4"/>
       <c r="H48" s="3"/>
       <c r="I48" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J48" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K48" s="1">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1827,17 +1871,17 @@
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
       <c r="I49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J49" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K49" s="1">
-        <v>300</v>
+        <v>5900</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1847,17 +1891,17 @@
       <c r="G50" s="4"/>
       <c r="H50" s="3"/>
       <c r="I50" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J50" s="1">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="K50" s="1">
-        <v>9000</v>
+        <v>465</v>
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1867,17 +1911,17 @@
       <c r="G51" s="4"/>
       <c r="H51" s="3"/>
       <c r="I51" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J51" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K51" s="1">
-        <v>5900</v>
+        <v>13400</v>
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1886,38 +1930,53 @@
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J52" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>465</v>
+        <v>1560</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="3"/>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>12615</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="4">
+        <v>45828</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I53" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J53" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K53" s="1">
-        <v>13400</v>
-      </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1926,53 +1985,38 @@
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
+      <c r="I54" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K54" s="1">
-        <v>1560</v>
+        <v>65000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>12615</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="4">
-        <v>45828</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>79</v>
-      </c>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
       <c r="I55" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J55" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K55" s="1">
-        <v>150000</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>300000</v>
+      </c>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1982,37 +2026,51 @@
       <c r="G56" s="4"/>
       <c r="H56" s="3"/>
       <c r="I56" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J56" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K56" s="1">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>14691</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="4">
+        <v>45830</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="3"/>
+      <c r="H57" s="3">
+        <v>15698</v>
+      </c>
       <c r="I57" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J57" s="1">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K57" s="1">
-        <v>300000</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2022,51 +2080,37 @@
       <c r="G58" s="4"/>
       <c r="H58" s="3"/>
       <c r="I58" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J58" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>14691</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="4">
-        <v>45830</v>
-      </c>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="3"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="3">
-        <v>15698</v>
-      </c>
+      <c r="H59" s="3"/>
       <c r="I59" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>550000</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2076,37 +2120,53 @@
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
       <c r="I60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="3"/>
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="4">
+        <v>45836</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="4">
+        <v>45656</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1564165</v>
+      </c>
       <c r="I61" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="1">
-        <v>550000</v>
+        <v>250000</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2116,53 +2176,37 @@
       <c r="G62" s="4"/>
       <c r="H62" s="3"/>
       <c r="I62" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>12</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="4">
-        <v>45836</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="4">
-        <v>45656</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1564165</v>
-      </c>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>250000</v>
+        <v>550000</v>
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2172,37 +2216,51 @@
       <c r="G64" s="4"/>
       <c r="H64" s="3"/>
       <c r="I64" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>6</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="3"/>
+      <c r="E65" s="4">
+        <v>45868</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="3">
+        <v>165168516</v>
+      </c>
       <c r="I65" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="K65" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2212,51 +2270,53 @@
       <c r="G66" s="4"/>
       <c r="H66" s="3"/>
       <c r="I66" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J66" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="K66" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>6</v>
+        <v>4919</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E67" s="4">
-        <v>45868</v>
+        <v>45807</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="3">
-        <v>165168516</v>
+        <v>26</v>
+      </c>
+      <c r="G67" s="4">
+        <v>45959</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J67" s="1">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="K67" s="1">
         <v>1500</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2264,55 +2324,39 @@
       <c r="E68" s="4"/>
       <c r="F68" s="3"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="3"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J68" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="K68" s="1">
-        <v>30</v>
+        <v>1569</v>
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>4919</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E69" s="4">
-        <v>45807</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="4">
-        <v>45959</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0</v>
-      </c>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J69" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K69" s="1">
-        <v>1500</v>
+        <v>216</v>
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2322,17 +2366,17 @@
       <c r="G70" s="4"/>
       <c r="H70" s="5"/>
       <c r="I70" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J70" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K70" s="1">
-        <v>1569</v>
+        <v>849</v>
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2342,37 +2386,53 @@
       <c r="G71" s="4"/>
       <c r="H71" s="5"/>
       <c r="I71" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J71" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K71" s="1">
-        <v>216</v>
+        <v>615</v>
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>1495</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="5"/>
+      <c r="E72" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" s="4">
+        <v>46021</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1564165</v>
+      </c>
       <c r="I72" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J72" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K72" s="1">
-        <v>849</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2380,55 +2440,39 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="5"/>
+      <c r="H73" s="3"/>
       <c r="I73" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="J73" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>615</v>
+        <v>65000</v>
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>1495</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>73</v>
-      </c>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="4">
-        <v>45853</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G74" s="4">
-        <v>46021</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1564165</v>
-      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>550000</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2438,202 +2482,162 @@
       <c r="G75" s="4"/>
       <c r="H75" s="3"/>
       <c r="I75" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K75" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J76" s="1">
-        <v>1</v>
-      </c>
-      <c r="K76" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J77" s="1">
-        <v>3</v>
-      </c>
-      <c r="K77" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L77" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="L69:L73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="L59:L62"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="L41:L45"/>
-    <mergeCell ref="A46:A54"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="D46:D54"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="F46:F54"/>
-    <mergeCell ref="G46:G54"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="L46:L54"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="L9:L17"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="C9:C17"/>
-    <mergeCell ref="D9:D17"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="E9:E17"/>
-    <mergeCell ref="F9:F17"/>
-    <mergeCell ref="G9:G17"/>
-    <mergeCell ref="H9:H17"/>
-    <mergeCell ref="L37:L40"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="L7:L15"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="H7:H15"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="E44:E52"/>
+    <mergeCell ref="F44:F52"/>
+    <mergeCell ref="G44:G52"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="L44:L52"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/purchase_plan.xlsx
+++ b/Input/purchase_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio Final/Desafio-Final-Robot/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCIO\OneDrive\Área de Trabalho\Projetos TCS\Desafio Final\Desafio-Final-Robot\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{AED3C1BC-688D-4956-8D80-FB6C34EE2BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36993B01-E37C-48C6-9127-83310E462434}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF292449-D350-4FB5-9B9B-AAD94FE7CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1ED2AF7A-95D3-4205-96D3-B73FD32B4131}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>NF</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Turner Harper</t>
+  </si>
+  <si>
+    <t>Jun 12, 2024</t>
+  </si>
+  <si>
+    <t>Set 25, 2025</t>
   </si>
 </sst>
 </file>
@@ -333,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -356,12 +362,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -376,6 +391,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -394,10 +415,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,7 +717,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I6"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +726,7 @@
     <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>876</v>
       </c>
@@ -763,14 +780,14 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
-        <v>45820</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4">
-        <v>45925</v>
+      <c r="G2" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="H2" s="3">
         <v>1651691</v>
@@ -2494,16 +2511,116 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="E44:E52"/>
+    <mergeCell ref="F44:F52"/>
+    <mergeCell ref="G44:G52"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="L44:L52"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="L7:L15"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="H7:H15"/>
     <mergeCell ref="L35:L38"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
@@ -2528,116 +2645,16 @@
     <mergeCell ref="H30:H34"/>
     <mergeCell ref="L30:L34"/>
     <mergeCell ref="A30:A34"/>
-    <mergeCell ref="L7:L15"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="E7:E15"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="H7:H15"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="F44:F52"/>
-    <mergeCell ref="G44:G52"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="L44:L52"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="H67:H71"/>
-    <mergeCell ref="L67:L71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/purchase_plan.xlsx
+++ b/Input/purchase_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCIO\OneDrive\Área de Trabalho\Projetos TCS\Desafio Final\Desafio-Final-Robot\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio Final/Desafio-Final-Robot/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF292449-D350-4FB5-9B9B-AAD94FE7CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{FF292449-D350-4FB5-9B9B-AAD94FE7CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F04AA6C-E611-447D-BE32-937CD4B93105}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1ED2AF7A-95D3-4205-96D3-B73FD32B4131}"/>
   </bookViews>
@@ -36,44 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>De quem?</t>
-  </si>
-  <si>
-    <t>Para quem?</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Vencimento</t>
-  </si>
-  <si>
-    <t>Numero PO</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>quantidade</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>Importado?</t>
-  </si>
-  <si>
     <t>BO's</t>
   </si>
   <si>
@@ -297,6 +264,63 @@
   </si>
   <si>
     <t>Set 25, 2025</t>
+  </si>
+  <si>
+    <t>Jun 12, 2025</t>
+  </si>
+  <si>
+    <t>Set 25, 2026</t>
+  </si>
+  <si>
+    <t>Jun 12, 2026</t>
+  </si>
+  <si>
+    <t>Set 25, 2027</t>
+  </si>
+  <si>
+    <t>Jun 12, 2027</t>
+  </si>
+  <si>
+    <t>Set 25, 2028</t>
+  </si>
+  <si>
+    <t>Jun 12, 2028</t>
+  </si>
+  <si>
+    <t>Set 25, 2029</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Bill To</t>
+  </si>
+  <si>
+    <t>Ship To</t>
+  </si>
+  <si>
+    <t>Payment Terms</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>Itens</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>National?</t>
   </si>
 </sst>
 </file>
@@ -376,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,18 +409,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,6 +442,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,7 +748,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,74 +757,74 @@
     <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>876</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="H2" s="3">
         <v>1651691</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1">
         <v>2</v>
@@ -802,20 +833,36 @@
         <v>530</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>876</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1651692</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
@@ -823,19 +870,37 @@
       <c r="K3" s="1">
         <v>90</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>876</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1651693</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1">
         <v>5</v>
@@ -843,19 +908,37 @@
       <c r="K4" s="1">
         <v>25</v>
       </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>876</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1651694</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
         <v>6</v>
@@ -863,19 +946,37 @@
       <c r="K5" s="1">
         <v>300</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>876</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1651695</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1">
         <v>5</v>
@@ -883,35 +984,37 @@
       <c r="K6" s="1">
         <v>2500</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>1456</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
         <v>45795</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7">
         <v>45776</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>27</v>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1">
         <v>9</v>
@@ -919,21 +1022,21 @@
       <c r="K7" s="1">
         <v>1500</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>29</v>
+      <c r="L7" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1">
         <v>4</v>
@@ -941,19 +1044,19 @@
       <c r="K8" s="1">
         <v>3000</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1">
         <v>5</v>
@@ -961,19 +1064,19 @@
       <c r="K9" s="1">
         <v>5000</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1">
         <v>9</v>
@@ -981,19 +1084,19 @@
       <c r="K10" s="1">
         <v>300</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1">
         <v>18</v>
@@ -1001,19 +1104,19 @@
       <c r="K11" s="1">
         <v>9000</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1">
         <v>12</v>
@@ -1021,19 +1124,19 @@
       <c r="K12" s="1">
         <v>5900</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1">
         <v>65</v>
@@ -1041,19 +1144,19 @@
       <c r="K13" s="1">
         <v>465</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1">
         <v>3</v>
@@ -1061,52 +1164,52 @@
       <c r="K14" s="1">
         <v>13400</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="1">
         <v>1560</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>4768</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7">
         <v>45828</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7">
         <v>46021</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>1115149</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1">
         <v>20</v>
@@ -1114,21 +1217,21 @@
       <c r="K16" s="1">
         <v>150000</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>18</v>
+      <c r="L16" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1">
         <v>60</v>
@@ -1136,19 +1239,19 @@
       <c r="K17" s="1">
         <v>65000</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1">
         <v>80</v>
@@ -1156,19 +1259,19 @@
       <c r="K18" s="1">
         <v>300000</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1">
         <v>30</v>
@@ -1176,33 +1279,33 @@
       <c r="K19" s="1">
         <v>20000</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>1652</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7">
         <v>45830</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="3">
+      <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6">
         <v>15698</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
@@ -1210,21 +1313,21 @@
       <c r="K20" s="1">
         <v>250000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>49</v>
+      <c r="L20" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -1232,19 +1335,19 @@
       <c r="K21" s="1">
         <v>65000</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -1252,19 +1355,19 @@
       <c r="K22" s="1">
         <v>550000</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1">
         <v>3</v>
@@ -1272,35 +1375,35 @@
       <c r="K23" s="1">
         <v>1000</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>123</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="B24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="7">
         <v>45836</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="7">
         <v>46021</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="6">
         <v>1564165</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
@@ -1308,21 +1411,21 @@
       <c r="K24" s="1">
         <v>250000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>49</v>
+      <c r="L24" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -1330,19 +1433,19 @@
       <c r="K25" s="1">
         <v>65000</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -1350,19 +1453,19 @@
       <c r="K26" s="1">
         <v>550000</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1">
         <v>3</v>
@@ -1370,33 +1473,33 @@
       <c r="K27" s="1">
         <v>1000</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>748</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="B28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="7">
         <v>45868</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="3" t="s">
-        <v>61</v>
+      <c r="F28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J28" s="1">
         <v>320</v>
@@ -1404,21 +1507,21 @@
       <c r="K28" s="1">
         <v>1500</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>18</v>
+      <c r="L28" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J29" s="1">
         <v>60</v>
@@ -1426,35 +1529,35 @@
       <c r="K29" s="1">
         <v>30</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>48</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="B30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="7">
         <v>45807</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="F30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="7">
         <v>45959</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="8">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J30" s="1">
         <v>9</v>
@@ -1462,21 +1565,21 @@
       <c r="K30" s="1">
         <v>1500</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>49</v>
+      <c r="L30" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1">
         <v>4</v>
@@ -1484,19 +1587,19 @@
       <c r="K31" s="1">
         <v>1569</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J32" s="1">
         <v>5</v>
@@ -1504,19 +1607,19 @@
       <c r="K32" s="1">
         <v>216</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J33" s="1">
         <v>9</v>
@@ -1524,19 +1627,19 @@
       <c r="K33" s="1">
         <v>849</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J34" s="1">
         <v>18</v>
@@ -1544,33 +1647,33 @@
       <c r="K34" s="1">
         <v>615</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>49815</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4">
+      <c r="B35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7">
         <v>45853</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="7">
         <v>46021</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="6">
         <v>1564165</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1">
         <v>2</v>
@@ -1578,21 +1681,21 @@
       <c r="K35" s="1">
         <v>250000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>49</v>
+      <c r="L35" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -1600,19 +1703,19 @@
       <c r="K36" s="1">
         <v>65000</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="3"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -1620,19 +1723,19 @@
       <c r="K37" s="1">
         <v>550000</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J38" s="1">
         <v>3</v>
@@ -1640,35 +1743,35 @@
       <c r="K38" s="1">
         <v>1000</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>189165</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="B39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="7">
         <v>45820</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="F39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="7">
         <v>45925</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="6">
         <v>1651691</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J39" s="1">
         <v>2</v>
@@ -1676,21 +1779,21 @@
       <c r="K39" s="1">
         <v>530</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>18</v>
+      <c r="L39" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J40" s="1">
         <v>3</v>
@@ -1698,19 +1801,19 @@
       <c r="K40" s="1">
         <v>90</v>
       </c>
-      <c r="L40" s="3"/>
+      <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J41" s="1">
         <v>5</v>
@@ -1718,19 +1821,19 @@
       <c r="K41" s="1">
         <v>25</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="3"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J42" s="1">
         <v>6</v>
@@ -1738,19 +1841,19 @@
       <c r="K42" s="1">
         <v>300</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="3"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J43" s="1">
         <v>5</v>
@@ -1758,35 +1861,35 @@
       <c r="K43" s="1">
         <v>2500</v>
       </c>
-      <c r="L43" s="3"/>
+      <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="6">
         <v>1565416</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="B44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="7">
         <v>45795</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="F44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="7">
         <v>45959</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>27</v>
+      <c r="H44" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1">
         <v>9</v>
@@ -1794,21 +1897,21 @@
       <c r="K44" s="1">
         <v>1500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>76</v>
+      <c r="L44" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="3"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J45" s="1">
         <v>4</v>
@@ -1816,19 +1919,19 @@
       <c r="K45" s="1">
         <v>3000</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J46" s="1">
         <v>5</v>
@@ -1836,19 +1939,19 @@
       <c r="K46" s="1">
         <v>5000</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="3"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1">
         <v>9</v>
@@ -1856,19 +1959,19 @@
       <c r="K47" s="1">
         <v>300</v>
       </c>
-      <c r="L47" s="3"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J48" s="1">
         <v>18</v>
@@ -1876,19 +1979,19 @@
       <c r="K48" s="1">
         <v>9000</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J49" s="1">
         <v>12</v>
@@ -1896,19 +1999,19 @@
       <c r="K49" s="1">
         <v>5900</v>
       </c>
-      <c r="L49" s="3"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J50" s="1">
         <v>65</v>
@@ -1916,19 +2019,19 @@
       <c r="K50" s="1">
         <v>465</v>
       </c>
-      <c r="L50" s="3"/>
+      <c r="L50" s="6"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="3"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J51" s="1">
         <v>3</v>
@@ -1936,52 +2039,52 @@
       <c r="K51" s="1">
         <v>13400</v>
       </c>
-      <c r="L51" s="3"/>
+      <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="3"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6"/>
       <c r="J52" s="1">
         <v>1</v>
       </c>
       <c r="K52" s="1">
         <v>1560</v>
       </c>
-      <c r="L52" s="3"/>
+      <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="6">
         <v>12615</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="B53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="7">
         <v>45828</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>79</v>
+      <c r="F53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J53" s="1">
         <v>20</v>
@@ -1989,21 +2092,21 @@
       <c r="K53" s="1">
         <v>150000</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>18</v>
+      <c r="L53" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="3"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J54" s="1">
         <v>60</v>
@@ -2011,19 +2114,19 @@
       <c r="K54" s="1">
         <v>65000</v>
       </c>
-      <c r="L54" s="3"/>
+      <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="3"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J55" s="1">
         <v>80</v>
@@ -2031,19 +2134,19 @@
       <c r="K55" s="1">
         <v>300000</v>
       </c>
-      <c r="L55" s="3"/>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="3"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J56" s="1">
         <v>30</v>
@@ -2051,31 +2154,31 @@
       <c r="K56" s="1">
         <v>20000</v>
       </c>
-      <c r="L56" s="3"/>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="6">
         <v>14691</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="B57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="7">
         <v>45830</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="3">
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="6">
         <v>15698</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J57" s="1">
         <v>2</v>
@@ -2083,21 +2186,21 @@
       <c r="K57" s="1">
         <v>250000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>49</v>
+      <c r="L57" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="3"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -2105,19 +2208,19 @@
       <c r="K58" s="1">
         <v>65000</v>
       </c>
-      <c r="L58" s="3"/>
+      <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="3"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -2125,19 +2228,19 @@
       <c r="K59" s="1">
         <v>550000</v>
       </c>
-      <c r="L59" s="3"/>
+      <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="3"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J60" s="1">
         <v>3</v>
@@ -2145,35 +2248,35 @@
       <c r="K60" s="1">
         <v>1000</v>
       </c>
-      <c r="L60" s="3"/>
+      <c r="L60" s="6"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="6">
         <v>12</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="B61" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="7">
         <v>45836</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61" s="4">
+      <c r="F61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="7">
         <v>45656</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="6">
         <v>1564165</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J61" s="1">
         <v>2</v>
@@ -2181,19 +2284,19 @@
       <c r="K61" s="1">
         <v>250000</v>
       </c>
-      <c r="L61" s="3"/>
+      <c r="L61" s="6"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="3"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -2201,19 +2304,19 @@
       <c r="K62" s="1">
         <v>65000</v>
       </c>
-      <c r="L62" s="3"/>
+      <c r="L62" s="6"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="3"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -2221,19 +2324,19 @@
       <c r="K63" s="1">
         <v>550000</v>
       </c>
-      <c r="L63" s="3"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="3"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J64" s="1">
         <v>3</v>
@@ -2241,31 +2344,31 @@
       <c r="K64" s="1">
         <v>1000</v>
       </c>
-      <c r="L64" s="3"/>
+      <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="6">
         <v>6</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="4">
+      <c r="B65" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7">
         <v>45868</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="3">
+      <c r="F65" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="6">
         <v>165168516</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J65" s="1">
         <v>320</v>
@@ -2273,21 +2376,21 @@
       <c r="K65" s="1">
         <v>1500</v>
       </c>
-      <c r="L65" s="3" t="s">
-        <v>18</v>
+      <c r="L65" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="3"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J66" s="1">
         <v>60</v>
@@ -2295,35 +2398,35 @@
       <c r="K66" s="1">
         <v>30</v>
       </c>
-      <c r="L66" s="3"/>
+      <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="6">
         <v>4919</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="4">
+      <c r="B67" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="7">
         <v>45807</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="4">
+      <c r="F67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="7">
         <v>45959</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="8">
         <v>0</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J67" s="1">
         <v>9</v>
@@ -2331,19 +2434,19 @@
       <c r="K67" s="1">
         <v>1500</v>
       </c>
-      <c r="L67" s="3"/>
+      <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="5"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J68" s="1">
         <v>4</v>
@@ -2351,19 +2454,19 @@
       <c r="K68" s="1">
         <v>1569</v>
       </c>
-      <c r="L68" s="3"/>
+      <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="5"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J69" s="1">
         <v>5</v>
@@ -2371,19 +2474,19 @@
       <c r="K69" s="1">
         <v>216</v>
       </c>
-      <c r="L69" s="3"/>
+      <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="5"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J70" s="1">
         <v>9</v>
@@ -2391,19 +2494,19 @@
       <c r="K70" s="1">
         <v>849</v>
       </c>
-      <c r="L70" s="3"/>
+      <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="5"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J71" s="1">
         <v>18</v>
@@ -2411,33 +2514,33 @@
       <c r="K71" s="1">
         <v>615</v>
       </c>
-      <c r="L71" s="3"/>
+      <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="6">
         <v>1495</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="4">
+      <c r="C72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7">
         <v>45853</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" s="4">
+      <c r="F72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="7">
         <v>46021</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="6">
         <v>1564165</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J72" s="1">
         <v>2</v>
@@ -2445,21 +2548,21 @@
       <c r="K72" s="1">
         <v>250000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>49</v>
+      <c r="L72" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="3"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -2467,19 +2570,19 @@
       <c r="K73" s="1">
         <v>65000</v>
       </c>
-      <c r="L73" s="3"/>
+      <c r="L73" s="6"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="3"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="6"/>
       <c r="I74" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -2487,19 +2590,19 @@
       <c r="K74" s="1">
         <v>550000</v>
       </c>
-      <c r="L74" s="3"/>
+      <c r="L74" s="6"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="3"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J75" s="1">
         <v>3</v>
@@ -2507,120 +2610,20 @@
       <c r="K75" s="1">
         <v>1000</v>
       </c>
-      <c r="L75" s="3"/>
+      <c r="L75" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="144">
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="H67:H71"/>
-    <mergeCell ref="L67:L71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="F44:F52"/>
-    <mergeCell ref="G44:G52"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="L44:L52"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="L7:L15"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="E7:E15"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="H7:H15"/>
+  <mergeCells count="135">
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="L35:L38"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
@@ -2645,16 +2648,107 @@
     <mergeCell ref="H30:H34"/>
     <mergeCell ref="L30:L34"/>
     <mergeCell ref="A30:A34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="L7:L15"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="H7:H15"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="E44:E52"/>
+    <mergeCell ref="F44:F52"/>
+    <mergeCell ref="G44:G52"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="L44:L52"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/purchase_plan.xlsx
+++ b/Input/purchase_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tcscomprod-my.sharepoint.com/personal/2595466_tcs_com/Documents/Arquivos de Chat do Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puruo\Documents\UiPath\Desafio_Final_TCS\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{AED3C1BC-688D-4956-8D80-FB6C34EE2BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B451D6-F967-4498-B222-CD07835B2419}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6EA647-9932-4D96-BC0F-CAD716A6762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1ED2AF7A-95D3-4205-96D3-B73FD32B4131}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ED2AF7A-95D3-4205-96D3-B73FD32B4131}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -693,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38281CB8-D694-459C-8E4A-7974F0BB072F}">
-  <dimension ref="A3:M77"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
@@ -705,84 +705,124 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>876</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45820</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45925</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1651691</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>530</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="1">
+        <v>90</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>876</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45820</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4">
-        <v>45925</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1651691</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
       <c r="K4" s="1">
-        <v>530</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -794,13 +834,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="L5" s="3"/>
     </row>
@@ -814,35 +854,53 @@
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1">
         <v>5</v>
       </c>
       <c r="K6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+      <c r="E7" s="4">
+        <v>45795</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45776</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K7" s="1">
-        <v>300</v>
-      </c>
-      <c r="L7" s="3"/>
+        <v>1500</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -854,53 +912,35 @@
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
-        <v>2500</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1456</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4">
-        <v>45795</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45776</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1">
-        <v>9</v>
-      </c>
       <c r="K9" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -912,13 +952,13 @@
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K10" s="1">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3"/>
     </row>
@@ -932,13 +972,13 @@
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L11" s="3"/>
     </row>
@@ -952,13 +992,13 @@
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K12" s="1">
-        <v>300</v>
+        <v>5900</v>
       </c>
       <c r="L12" s="3"/>
     </row>
@@ -972,13 +1012,13 @@
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="K13" s="1">
-        <v>9000</v>
+        <v>465</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -992,13 +1032,13 @@
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>5900</v>
+        <v>13400</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -1011,36 +1051,51 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J15" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>465</v>
+        <v>1560</v>
       </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
+      <c r="A16" s="3">
+        <v>4768</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45828</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46021</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1115149</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1">
-        <v>13400</v>
-      </c>
-      <c r="L16" s="3"/>
+        <v>150000</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1051,51 +1106,36 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
+      <c r="I17" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K17" s="1">
-        <v>1560</v>
+        <v>65000</v>
       </c>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>4768</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4">
-        <v>45828</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4">
-        <v>46021</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1115149</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1">
-        <v>150000</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1107,35 +1147,51 @@
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="3">
+        <v>1652</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45830</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>15698</v>
+      </c>
       <c r="I20" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K20" s="1">
-        <v>300000</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>250000</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1147,51 +1203,35 @@
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>1652</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45830</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="3">
-        <v>15698</v>
-      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1203,35 +1243,53 @@
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
+      <c r="A24" s="3">
+        <v>123</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4">
+        <v>45836</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="4">
+        <v>46021</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1564165</v>
+      </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L24" s="3"/>
+        <v>250000</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1243,53 +1301,35 @@
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="I25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>123</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="4">
-        <v>45836</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="4">
-        <v>46021</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1564165</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1301,35 +1341,51 @@
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="3">
+        <v>748</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45868</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="K28" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L28" s="3"/>
+        <v>1500</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1341,50 +1397,52 @@
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
       <c r="I29" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J29" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="K29" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>748</v>
+        <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E30" s="4">
-        <v>45868</v>
+        <v>45807</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45959</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J30" s="1">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="K30" s="1">
         <v>1500</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1395,55 +1453,37 @@
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J31" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="K31" s="1">
-        <v>30</v>
+        <v>1569</v>
       </c>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="4">
-        <v>45807</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45959</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J32" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K32" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1455,13 +1495,13 @@
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
       <c r="I33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J33" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K33" s="1">
-        <v>1569</v>
+        <v>849</v>
       </c>
       <c r="L33" s="3"/>
     </row>
@@ -1475,35 +1515,51 @@
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
       <c r="I34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J34" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K34" s="1">
-        <v>216</v>
+        <v>615</v>
       </c>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="3">
+        <v>49815</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
+      <c r="E35" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="4">
+        <v>46021</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1564165</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J35" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K35" s="1">
-        <v>849</v>
-      </c>
-      <c r="L35" s="3"/>
+        <v>250000</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1513,53 +1569,37 @@
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="J36" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>615</v>
+        <v>65000</v>
       </c>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>49815</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="4">
-        <v>45853</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="4">
-        <v>46021</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1564165</v>
-      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1571,35 +1611,53 @@
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="3">
+        <v>189165</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45820</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="4">
+        <v>45925</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1651691</v>
+      </c>
       <c r="I39" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L39" s="3"/>
+        <v>530</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1611,53 +1669,35 @@
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
       <c r="I40" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J40" s="1">
         <v>3</v>
       </c>
       <c r="K40" s="1">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>189165</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="4">
-        <v>45820</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="4">
-        <v>45925</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1651691</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J41" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K41" s="1">
-        <v>530</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -1669,13 +1709,13 @@
       <c r="G42" s="4"/>
       <c r="H42" s="3"/>
       <c r="I42" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J42" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K42" s="1">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="L42" s="3"/>
     </row>
@@ -1689,35 +1729,53 @@
       <c r="G43" s="4"/>
       <c r="H43" s="3"/>
       <c r="I43" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J43" s="1">
         <v>5</v>
       </c>
       <c r="K43" s="1">
+        <v>2500</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1565416</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
+      <c r="E44" s="4">
+        <v>45795</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45959</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I44" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J44" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K44" s="1">
-        <v>300</v>
-      </c>
-      <c r="L44" s="3"/>
+        <v>1500</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -1729,53 +1787,35 @@
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
       <c r="I45" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J45" s="1">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="1">
         <v>5</v>
       </c>
-      <c r="K45" s="1">
-        <v>2500</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>1565416</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="4">
-        <v>45795</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="4">
-        <v>45959</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="1">
-        <v>9</v>
-      </c>
       <c r="K46" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1787,13 +1827,13 @@
       <c r="G47" s="4"/>
       <c r="H47" s="3"/>
       <c r="I47" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J47" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K47" s="1">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="L47" s="3"/>
     </row>
@@ -1807,13 +1847,13 @@
       <c r="G48" s="4"/>
       <c r="H48" s="3"/>
       <c r="I48" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J48" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K48" s="1">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L48" s="3"/>
     </row>
@@ -1827,13 +1867,13 @@
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
       <c r="I49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J49" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K49" s="1">
-        <v>300</v>
+        <v>5900</v>
       </c>
       <c r="L49" s="3"/>
     </row>
@@ -1847,13 +1887,13 @@
       <c r="G50" s="4"/>
       <c r="H50" s="3"/>
       <c r="I50" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J50" s="1">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="K50" s="1">
-        <v>9000</v>
+        <v>465</v>
       </c>
       <c r="L50" s="3"/>
     </row>
@@ -1867,13 +1907,13 @@
       <c r="G51" s="4"/>
       <c r="H51" s="3"/>
       <c r="I51" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J51" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K51" s="1">
-        <v>5900</v>
+        <v>13400</v>
       </c>
       <c r="L51" s="3"/>
     </row>
@@ -1886,36 +1926,51 @@
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J52" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>465</v>
+        <v>1560</v>
       </c>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="3"/>
+      <c r="A53" s="3">
+        <v>12615</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="4">
+        <v>45828</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I53" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J53" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K53" s="1">
-        <v>13400</v>
-      </c>
-      <c r="L53" s="3"/>
+        <v>150000</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -1926,51 +1981,36 @@
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
+      <c r="I54" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K54" s="1">
-        <v>1560</v>
+        <v>65000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>12615</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="4">
-        <v>45828</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
       <c r="I55" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J55" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K55" s="1">
-        <v>150000</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -1982,35 +2022,49 @@
       <c r="G56" s="4"/>
       <c r="H56" s="3"/>
       <c r="I56" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J56" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K56" s="1">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
+      <c r="A57" s="3">
+        <v>14691</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="4">
+        <v>45830</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="3"/>
+      <c r="H57" s="3">
+        <v>15698</v>
+      </c>
       <c r="I57" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J57" s="1">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K57" s="1">
-        <v>300000</v>
-      </c>
-      <c r="L57" s="3"/>
+        <v>250000</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -2022,49 +2076,35 @@
       <c r="G58" s="4"/>
       <c r="H58" s="3"/>
       <c r="I58" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J58" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>14691</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="4">
-        <v>45830</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="3"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="3">
-        <v>15698</v>
-      </c>
+      <c r="H59" s="3"/>
       <c r="I59" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -2076,33 +2116,49 @@
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
       <c r="I60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="3"/>
+      <c r="A61" s="3">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="4">
+        <v>45836</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="4">
+        <v>45656</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1564165</v>
+      </c>
       <c r="I61" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="1">
-        <v>550000</v>
+        <v>250000</v>
       </c>
       <c r="L61" s="3"/>
     </row>
@@ -2116,49 +2172,33 @@
       <c r="G62" s="4"/>
       <c r="H62" s="3"/>
       <c r="I62" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>12</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="4">
-        <v>45836</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="4">
-        <v>45656</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1564165</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>250000</v>
+        <v>550000</v>
       </c>
       <c r="L63" s="3"/>
     </row>
@@ -2172,35 +2212,49 @@
       <c r="G64" s="4"/>
       <c r="H64" s="3"/>
       <c r="I64" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="3">
+        <v>6</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="3"/>
+      <c r="E65" s="4">
+        <v>45868</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="3">
+        <v>165168516</v>
+      </c>
       <c r="I65" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="K65" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L65" s="3"/>
+        <v>1500</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -2212,49 +2266,51 @@
       <c r="G66" s="4"/>
       <c r="H66" s="3"/>
       <c r="I66" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J66" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="K66" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>6</v>
+        <v>4919</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E67" s="4">
-        <v>45868</v>
+        <v>45807</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="3">
-        <v>165168516</v>
+        <v>26</v>
+      </c>
+      <c r="G67" s="4">
+        <v>45959</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J67" s="1">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="K67" s="1">
         <v>1500</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
@@ -2264,51 +2320,35 @@
       <c r="E68" s="4"/>
       <c r="F68" s="3"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="3"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J68" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="K68" s="1">
-        <v>30</v>
+        <v>1569</v>
       </c>
       <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>4919</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E69" s="4">
-        <v>45807</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="4">
-        <v>45959</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J69" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K69" s="1">
-        <v>1500</v>
+        <v>216</v>
       </c>
       <c r="L69" s="3"/>
     </row>
@@ -2322,13 +2362,13 @@
       <c r="G70" s="4"/>
       <c r="H70" s="5"/>
       <c r="I70" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J70" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K70" s="1">
-        <v>1569</v>
+        <v>849</v>
       </c>
       <c r="L70" s="3"/>
     </row>
@@ -2342,35 +2382,51 @@
       <c r="G71" s="4"/>
       <c r="H71" s="5"/>
       <c r="I71" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J71" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K71" s="1">
-        <v>216</v>
+        <v>615</v>
       </c>
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="3">
+        <v>1495</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="5"/>
+      <c r="E72" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" s="4">
+        <v>46021</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1564165</v>
+      </c>
       <c r="I72" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J72" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K72" s="1">
-        <v>849</v>
-      </c>
-      <c r="L72" s="3"/>
+        <v>250000</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2380,53 +2436,37 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="5"/>
+      <c r="H73" s="3"/>
       <c r="I73" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="J73" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>615</v>
+        <v>65000</v>
       </c>
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>1495</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="4">
-        <v>45853</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G74" s="4">
-        <v>46021</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1564165</v>
-      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -2438,202 +2478,162 @@
       <c r="G75" s="4"/>
       <c r="H75" s="3"/>
       <c r="I75" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K75" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J76" s="1">
-        <v>1</v>
-      </c>
-      <c r="K76" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J77" s="1">
-        <v>3</v>
-      </c>
-      <c r="K77" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L77" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="L69:L73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="L59:L62"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="L41:L45"/>
-    <mergeCell ref="A46:A54"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="D46:D54"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="F46:F54"/>
-    <mergeCell ref="G46:G54"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="L46:L54"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="L9:L17"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="C9:C17"/>
-    <mergeCell ref="D9:D17"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="E9:E17"/>
-    <mergeCell ref="F9:F17"/>
-    <mergeCell ref="G9:G17"/>
-    <mergeCell ref="H9:H17"/>
-    <mergeCell ref="L37:L40"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="E44:E52"/>
+    <mergeCell ref="F44:F52"/>
+    <mergeCell ref="G44:G52"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="L44:L52"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="L7:L15"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="H7:H15"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/purchase_plan.xlsx
+++ b/Input/purchase_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio Final/Desafio-Final-Robot/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{FF292449-D350-4FB5-9B9B-AAD94FE7CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F04AA6C-E611-447D-BE32-937CD4B93105}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{FF292449-D350-4FB5-9B9B-AAD94FE7CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9959ADB3-747B-4A36-BF94-7322E3548A92}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1ED2AF7A-95D3-4205-96D3-B73FD32B4131}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -116,9 +116,6 @@
     <t>iPhone</t>
   </si>
   <si>
-    <t>Caco Barcellos</t>
-  </si>
-  <si>
     <t>Rodrigo Gomes</t>
   </si>
   <si>
@@ -266,27 +263,15 @@
     <t>Set 25, 2025</t>
   </si>
   <si>
-    <t>Jun 12, 2025</t>
-  </si>
-  <si>
     <t>Set 25, 2026</t>
   </si>
   <si>
-    <t>Jun 12, 2026</t>
-  </si>
-  <si>
     <t>Set 25, 2027</t>
   </si>
   <si>
-    <t>Jun 12, 2027</t>
-  </si>
-  <si>
     <t>Set 25, 2028</t>
   </si>
   <si>
-    <t>Jun 12, 2028</t>
-  </si>
-  <si>
     <t>Set 25, 2029</t>
   </si>
   <si>
@@ -321,6 +306,27 @@
   </si>
   <si>
     <t>National?</t>
+  </si>
+  <si>
+    <t>1564%897</t>
+  </si>
+  <si>
+    <t>1564%898</t>
+  </si>
+  <si>
+    <t>1564%899</t>
+  </si>
+  <si>
+    <t>1564%900</t>
+  </si>
+  <si>
+    <t>1564%901</t>
+  </si>
+  <si>
+    <t>1564%902</t>
+  </si>
+  <si>
+    <t>1564%903</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -425,6 +431,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38281CB8-D694-459C-8E4A-7974F0BB072F}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,40 +768,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>1</v>
@@ -812,13 +821,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3">
         <v>1651691</v>
@@ -850,13 +859,13 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3" s="3">
         <v>1651692</v>
@@ -888,13 +897,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4" s="3">
         <v>1651693</v>
@@ -926,13 +935,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H5" s="3">
         <v>1651694</v>
@@ -964,13 +973,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H6" s="3">
         <v>1651695</v>
@@ -989,28 +998,28 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>1456</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
         <v>45795</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <v>45776</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1022,19 +1031,35 @@
       <c r="K7" s="1">
         <v>1500</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9">
+        <v>45796</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="9">
+        <v>45777</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1044,17 +1069,35 @@
       <c r="K8" s="1">
         <v>3000</v>
       </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9">
+        <v>45797</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="9">
+        <v>45778</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1064,17 +1107,35 @@
       <c r="K9" s="1">
         <v>5000</v>
       </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9">
+        <v>45798</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9">
+        <v>45779</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1084,17 +1145,35 @@
       <c r="K10" s="1">
         <v>300</v>
       </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="9">
+        <v>45799</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="9">
+        <v>45780</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1104,17 +1183,35 @@
       <c r="K11" s="1">
         <v>9000</v>
       </c>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="L11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9">
+        <v>45800</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9">
+        <v>45781</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1124,17 +1221,35 @@
       <c r="K12" s="1">
         <v>5900</v>
       </c>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="L12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9">
+        <v>45801</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="9">
+        <v>45782</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1144,17 +1259,35 @@
       <c r="K13" s="1">
         <v>465</v>
       </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
+      <c r="L13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9">
+        <v>45802</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45783</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1164,7 +1297,9 @@
       <c r="K14" s="1">
         <v>13400</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
@@ -1175,51 +1310,36 @@
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K15" s="1">
-        <v>1560</v>
+        <v>65000</v>
       </c>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>4768</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="7">
-        <v>45828</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7">
-        <v>46021</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1115149</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1">
-        <v>150000</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1231,35 +1351,51 @@
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
       <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1">
         <v>30</v>
       </c>
-      <c r="J17" s="1">
-        <v>60</v>
-      </c>
       <c r="K17" s="1">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="6">
+        <v>1652</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45830</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>15698</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1">
-        <v>300000</v>
-      </c>
-      <c r="L18" s="6"/>
+        <v>250000</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -1271,51 +1407,35 @@
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>1652</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="7">
-        <v>45830</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="6">
-        <v>15698</v>
-      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1327,35 +1447,53 @@
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
       <c r="I21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="6">
+        <v>123</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45836</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="7">
+        <v>46021</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1564165</v>
+      </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L22" s="6"/>
+        <v>250000</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1367,53 +1505,35 @@
       <c r="G23" s="7"/>
       <c r="H23" s="6"/>
       <c r="I23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>123</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="7">
-        <v>45836</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="7">
-        <v>46021</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1564165</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
@@ -1425,35 +1545,51 @@
       <c r="G25" s="7"/>
       <c r="H25" s="6"/>
       <c r="I25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="6">
+        <v>748</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="7">
+        <v>45868</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="K26" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L26" s="6"/>
+        <v>1500</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -1465,50 +1601,52 @@
       <c r="G27" s="7"/>
       <c r="H27" s="6"/>
       <c r="I27" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J27" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="K27" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>748</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E28" s="7">
-        <v>45868</v>
+        <v>45807</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="7">
+        <v>45959</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J28" s="1">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="K28" s="1">
         <v>1500</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1519,55 +1657,37 @@
       <c r="E29" s="7"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J29" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="K29" s="1">
-        <v>30</v>
+        <v>1569</v>
       </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>48</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="7">
-        <v>45807</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="7">
-        <v>45959</v>
-      </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J30" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K30" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -1579,13 +1699,13 @@
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
       <c r="I31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J31" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K31" s="1">
-        <v>1569</v>
+        <v>849</v>
       </c>
       <c r="L31" s="6"/>
     </row>
@@ -1599,35 +1719,51 @@
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J32" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K32" s="1">
-        <v>216</v>
+        <v>615</v>
       </c>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="6">
+        <v>49815</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="E33" s="7">
+        <v>45853</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="7">
+        <v>46021</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1564165</v>
+      </c>
       <c r="I33" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K33" s="1">
-        <v>849</v>
-      </c>
-      <c r="L33" s="6"/>
+        <v>250000</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
@@ -1637,53 +1773,37 @@
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>615</v>
+        <v>65000</v>
       </c>
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>49815</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="7">
-        <v>45853</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="7">
-        <v>46021</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1564165</v>
-      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -1695,35 +1815,53 @@
       <c r="G36" s="7"/>
       <c r="H36" s="6"/>
       <c r="I36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K36" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6"/>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>189165</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45820</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="7">
+        <v>45925</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1651691</v>
+      </c>
       <c r="I37" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L37" s="6"/>
+        <v>530</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -1735,53 +1873,35 @@
       <c r="G38" s="7"/>
       <c r="H38" s="6"/>
       <c r="I38" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="J38" s="1">
         <v>3</v>
       </c>
       <c r="K38" s="1">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>189165</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="7">
-        <v>45820</v>
-      </c>
-      <c r="F39" s="6" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="1">
         <v>5</v>
       </c>
-      <c r="G39" s="7">
-        <v>45925</v>
-      </c>
-      <c r="H39" s="6">
-        <v>1651691</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="1">
-        <v>2</v>
-      </c>
       <c r="K39" s="1">
-        <v>530</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
@@ -1793,13 +1913,13 @@
       <c r="G40" s="7"/>
       <c r="H40" s="6"/>
       <c r="I40" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K40" s="1">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="L40" s="6"/>
     </row>
@@ -1813,35 +1933,53 @@
       <c r="G41" s="7"/>
       <c r="H41" s="6"/>
       <c r="I41" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J41" s="1">
         <v>5</v>
       </c>
       <c r="K41" s="1">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>1565416</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45795</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="7">
+        <v>45959</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I42" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K42" s="1">
-        <v>300</v>
-      </c>
-      <c r="L42" s="6"/>
+        <v>1500</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
@@ -1853,53 +1991,35 @@
       <c r="G43" s="7"/>
       <c r="H43" s="6"/>
       <c r="I43" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J43" s="1">
+        <v>4</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="1">
         <v>5</v>
       </c>
-      <c r="K43" s="1">
-        <v>2500</v>
-      </c>
-      <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>1565416</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="7">
-        <v>45795</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="7">
-        <v>45959</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="1">
-        <v>9</v>
-      </c>
       <c r="K44" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -1911,13 +2031,13 @@
       <c r="G45" s="7"/>
       <c r="H45" s="6"/>
       <c r="I45" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J45" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K45" s="1">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="L45" s="6"/>
     </row>
@@ -1931,13 +2051,13 @@
       <c r="G46" s="7"/>
       <c r="H46" s="6"/>
       <c r="I46" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J46" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K46" s="1">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -1951,13 +2071,13 @@
       <c r="G47" s="7"/>
       <c r="H47" s="6"/>
       <c r="I47" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J47" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K47" s="1">
-        <v>300</v>
+        <v>5900</v>
       </c>
       <c r="L47" s="6"/>
     </row>
@@ -1971,13 +2091,13 @@
       <c r="G48" s="7"/>
       <c r="H48" s="6"/>
       <c r="I48" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J48" s="1">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="K48" s="1">
-        <v>9000</v>
+        <v>465</v>
       </c>
       <c r="L48" s="6"/>
     </row>
@@ -1991,13 +2111,13 @@
       <c r="G49" s="7"/>
       <c r="H49" s="6"/>
       <c r="I49" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J49" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K49" s="1">
-        <v>5900</v>
+        <v>13400</v>
       </c>
       <c r="L49" s="6"/>
     </row>
@@ -2010,36 +2130,51 @@
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1560</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>12615</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K50" s="1">
-        <v>465</v>
-      </c>
-      <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45828</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="I51" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J51" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K51" s="1">
-        <v>13400</v>
-      </c>
-      <c r="L51" s="6"/>
+        <v>150000</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
@@ -2050,51 +2185,36 @@
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6"/>
+      <c r="I52" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K52" s="1">
-        <v>1560</v>
+        <v>65000</v>
       </c>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>12615</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="7">
-        <v>45828</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>68</v>
-      </c>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K53" s="1">
-        <v>150000</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -2106,35 +2226,49 @@
       <c r="G54" s="7"/>
       <c r="H54" s="6"/>
       <c r="I54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="1">
         <v>30</v>
       </c>
-      <c r="J54" s="1">
-        <v>60</v>
-      </c>
       <c r="K54" s="1">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
+      <c r="A55" s="6">
+        <v>14691</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45830</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="6">
+        <v>15698</v>
+      </c>
       <c r="I55" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J55" s="1">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K55" s="1">
-        <v>300000</v>
-      </c>
-      <c r="L55" s="6"/>
+        <v>250000</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
@@ -2146,49 +2280,35 @@
       <c r="G56" s="7"/>
       <c r="H56" s="6"/>
       <c r="I56" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J56" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
-        <v>14691</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="7">
-        <v>45830</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="6">
-        <v>15698</v>
-      </c>
+      <c r="H57" s="6"/>
       <c r="I57" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L57" s="6"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
@@ -2200,33 +2320,49 @@
       <c r="G58" s="7"/>
       <c r="H58" s="6"/>
       <c r="I58" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K58" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="6"/>
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>12</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45836</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="7">
+        <v>45656</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1564165</v>
+      </c>
       <c r="I59" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="1">
-        <v>550000</v>
+        <v>250000</v>
       </c>
       <c r="L59" s="6"/>
     </row>
@@ -2240,49 +2376,33 @@
       <c r="G60" s="7"/>
       <c r="H60" s="6"/>
       <c r="I60" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
-        <v>12</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="7">
-        <v>45836</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" s="7">
-        <v>45656</v>
-      </c>
-      <c r="H61" s="6">
-        <v>1564165</v>
-      </c>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>250000</v>
+        <v>550000</v>
       </c>
       <c r="L61" s="6"/>
     </row>
@@ -2296,35 +2416,49 @@
       <c r="G62" s="7"/>
       <c r="H62" s="6"/>
       <c r="I62" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L62" s="6"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="A63" s="6">
+        <v>6</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="6"/>
+      <c r="E63" s="7">
+        <v>45868</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6">
+        <v>165168516</v>
+      </c>
       <c r="I63" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="K63" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L63" s="6"/>
+        <v>1500</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
@@ -2336,49 +2470,51 @@
       <c r="G64" s="7"/>
       <c r="H64" s="6"/>
       <c r="I64" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J64" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="K64" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>6</v>
+        <v>4919</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E65" s="7">
-        <v>45868</v>
+        <v>45807</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6">
-        <v>165168516</v>
+        <v>15</v>
+      </c>
+      <c r="G65" s="7">
+        <v>45959</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J65" s="1">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="K65" s="1">
         <v>1500</v>
       </c>
-      <c r="L65" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
@@ -2388,51 +2524,35 @@
       <c r="E66" s="7"/>
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="6"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J66" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="K66" s="1">
-        <v>30</v>
+        <v>1569</v>
       </c>
       <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
-        <v>4919</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" s="7">
-        <v>45807</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="7">
-        <v>45959</v>
-      </c>
-      <c r="H67" s="8">
-        <v>0</v>
-      </c>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J67" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K67" s="1">
-        <v>1500</v>
+        <v>216</v>
       </c>
       <c r="L67" s="6"/>
     </row>
@@ -2446,13 +2566,13 @@
       <c r="G68" s="7"/>
       <c r="H68" s="8"/>
       <c r="I68" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J68" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K68" s="1">
-        <v>1569</v>
+        <v>849</v>
       </c>
       <c r="L68" s="6"/>
     </row>
@@ -2466,35 +2586,51 @@
       <c r="G69" s="7"/>
       <c r="H69" s="8"/>
       <c r="I69" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J69" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K69" s="1">
-        <v>216</v>
+        <v>615</v>
       </c>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
+      <c r="A70" s="6">
+        <v>1495</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="8"/>
+      <c r="E70" s="7">
+        <v>45853</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="7">
+        <v>46021</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1564165</v>
+      </c>
       <c r="I70" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J70" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K70" s="1">
-        <v>849</v>
-      </c>
-      <c r="L70" s="6"/>
+        <v>250000</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
@@ -2504,53 +2640,37 @@
       <c r="E71" s="7"/>
       <c r="F71" s="6"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J71" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>615</v>
+        <v>65000</v>
       </c>
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
-        <v>1495</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="7">
-        <v>45853</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" s="7">
-        <v>46021</v>
-      </c>
-      <c r="H72" s="6">
-        <v>1564165</v>
-      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6"/>
       <c r="I72" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>550000</v>
+      </c>
+      <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
@@ -2562,193 +2682,144 @@
       <c r="G73" s="7"/>
       <c r="H73" s="6"/>
       <c r="I73" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K73" s="1">
-        <v>65000</v>
+        <v>1000</v>
       </c>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" s="1">
-        <v>1</v>
-      </c>
-      <c r="K74" s="1">
-        <v>550000</v>
-      </c>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" s="1">
-        <v>3</v>
-      </c>
-      <c r="K75" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L75" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="L7:L15"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="E7:E15"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="H7:H15"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="F44:F52"/>
-    <mergeCell ref="G44:G52"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="L44:L52"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="H67:H71"/>
-    <mergeCell ref="L67:L71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
+  <mergeCells count="126">
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="L70:L73"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="L59:L62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="L37:L41"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="F42:F50"/>
+    <mergeCell ref="G42:G50"/>
+    <mergeCell ref="H42:H50"/>
+    <mergeCell ref="L42:L50"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
